--- a/app/Licenciatura_em_Ensino_de_Frances.xlsx
+++ b/app/Licenciatura_em_Ensino_de_Frances.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Luisa Francisco Chauque</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Gracinda Pedro Pequenino</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>100200435443B</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Teresa Luis Roda</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>Elsa Rosa Sitoe</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110500561935N</t>
   </si>
   <si>
@@ -344,9 +332,6 @@
     <t>Maria Tamara Antonio</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100670315L</t>
   </si>
   <si>
@@ -371,9 +356,6 @@
     <t>Adozinda Andre Manhique</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101580183J</t>
   </si>
   <si>
@@ -467,9 +449,6 @@
     <t>Ines Joaquim Mazive</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110500408758P</t>
   </si>
   <si>
@@ -491,9 +470,6 @@
     <t>Eugenia Januario</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110104266532S</t>
   </si>
   <si>
@@ -518,9 +494,6 @@
     <t>Rosita Eugenio Cossa</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110104530493I</t>
   </si>
   <si>
@@ -566,9 +539,6 @@
     <t xml:space="preserve">Clara Fenias Manhique </t>
   </si>
   <si>
-    <t>Distrito de Manjacaze</t>
-  </si>
-  <si>
     <t>110101990888A</t>
   </si>
   <si>
@@ -632,9 +602,6 @@
     <t>Quiteria Fenias Dimande</t>
   </si>
   <si>
-    <t>Distrito de Manhiça</t>
-  </si>
-  <si>
     <t>110204476890P</t>
   </si>
   <si>
@@ -677,9 +644,6 @@
     <t>Ana Fabiao</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -783,9 +747,6 @@
   </si>
   <si>
     <t>Luisa Faustino</t>
-  </si>
-  <si>
-    <t>Cidade de Maxixe</t>
   </si>
   <si>
     <t>0801012527887 A</t>
@@ -2162,7 +2123,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2178,7 +2139,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2194,7 +2155,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2210,7 +2171,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2226,7 +2187,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2241,9 +2202,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2251,7 +2210,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2262,7 +2221,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2271,7 +2230,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2283,7 +2242,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2291,7 +2250,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2387,7 +2346,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2430,7 +2389,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2757,7 +2716,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2773,7 +2732,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2789,7 +2748,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2805,7 +2764,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2821,7 +2780,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2836,9 +2795,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2846,7 +2803,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2857,7 +2814,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2866,7 +2823,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2878,7 +2835,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2886,7 +2843,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2982,7 +2939,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3025,7 +2982,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3352,7 +3309,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3368,7 +3325,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3384,7 +3341,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3400,7 +3357,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3416,7 +3373,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3431,9 +3388,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>139</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3441,7 +3396,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3452,7 +3407,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3461,7 +3416,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3473,7 +3428,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3481,7 +3436,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3577,7 +3532,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3620,7 +3575,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3947,7 +3902,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3963,7 +3918,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3979,7 +3934,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3995,7 +3950,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4011,7 +3966,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4026,9 +3981,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4036,7 +3989,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4047,7 +4000,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4056,7 +4009,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4068,7 +4021,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4076,7 +4029,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4172,7 +4125,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4215,7 +4168,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4542,7 +4495,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4558,7 +4511,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4574,7 +4527,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4590,7 +4543,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4606,7 +4559,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4621,9 +4574,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>156</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4631,7 +4582,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4642,7 +4593,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4651,7 +4602,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4663,7 +4614,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4671,7 +4622,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4767,7 +4718,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4810,7 +4761,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5137,7 +5088,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5153,7 +5104,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5169,7 +5120,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5185,7 +5136,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5201,7 +5152,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5216,9 +5167,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5226,7 +5175,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5237,7 +5186,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5246,7 +5195,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5258,7 +5207,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5266,7 +5215,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5362,7 +5311,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5405,7 +5354,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5732,7 +5681,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5748,7 +5697,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5764,7 +5713,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5780,7 +5729,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5796,7 +5745,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5811,9 +5760,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>172</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5821,7 +5768,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5832,7 +5779,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5841,7 +5788,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5853,7 +5800,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5861,7 +5808,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5957,7 +5904,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6000,7 +5947,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6327,7 +6274,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6343,7 +6290,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6359,7 +6306,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6375,7 +6322,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6391,7 +6338,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6406,9 +6353,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6416,7 +6361,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6427,7 +6372,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6436,7 +6381,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6448,7 +6393,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6456,7 +6401,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6552,7 +6497,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6595,7 +6540,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6922,7 +6867,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6938,7 +6883,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6954,7 +6899,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6970,7 +6915,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6986,7 +6931,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7001,9 +6946,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7011,7 +6954,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7022,7 +6965,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7031,7 +6974,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7043,7 +6986,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7051,7 +6994,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7147,7 +7090,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7190,7 +7133,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7517,7 +7460,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7533,7 +7476,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7549,7 +7492,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7565,7 +7508,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7581,7 +7524,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7596,9 +7539,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>194</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7606,7 +7547,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7617,7 +7558,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7626,7 +7567,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7638,7 +7579,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7646,7 +7587,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7742,7 +7683,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7785,7 +7726,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8191,9 +8132,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8201,7 +8140,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8212,7 +8151,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8221,7 +8160,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8233,7 +8172,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8241,7 +8180,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8337,7 +8276,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8380,7 +8319,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8707,7 +8646,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8723,7 +8662,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8739,7 +8678,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8755,7 +8694,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8771,7 +8710,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8786,9 +8725,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8796,7 +8733,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8807,7 +8744,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8816,7 +8753,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8828,7 +8765,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8836,7 +8773,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8932,7 +8869,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8975,7 +8912,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9302,7 +9239,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9318,7 +9255,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9334,7 +9271,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9350,7 +9287,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9366,7 +9303,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9381,9 +9318,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9391,7 +9326,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9402,7 +9337,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9411,7 +9346,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9423,7 +9358,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9527,7 +9462,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9570,7 +9505,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9897,7 +9832,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9913,7 +9848,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9929,7 +9864,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9945,7 +9880,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9961,7 +9896,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9976,9 +9911,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9986,7 +9919,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9997,7 +9930,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10006,7 +9939,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10018,7 +9951,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10026,7 +9959,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10122,7 +10055,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10165,7 +10098,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10492,7 +10425,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10508,7 +10441,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10524,7 +10457,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10540,7 +10473,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10556,7 +10489,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10571,9 +10504,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10581,7 +10512,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10592,7 +10523,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10601,7 +10532,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10613,7 +10544,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10717,7 +10648,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10760,7 +10691,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11087,7 +11018,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11103,7 +11034,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11119,7 +11050,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11135,7 +11066,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11151,7 +11082,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11166,9 +11097,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11176,7 +11105,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11187,7 +11116,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11196,7 +11125,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11208,7 +11137,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11312,7 +11241,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11355,7 +11284,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11682,7 +11611,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11698,7 +11627,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11714,7 +11643,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11730,7 +11659,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11746,7 +11675,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11761,9 +11690,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11771,7 +11698,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11782,7 +11709,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11791,7 +11718,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11803,7 +11730,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11811,7 +11738,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11907,7 +11834,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11950,7 +11877,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12277,7 +12204,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12293,7 +12220,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12309,7 +12236,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12325,7 +12252,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12341,7 +12268,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12356,9 +12283,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>245</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12366,7 +12291,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12377,7 +12302,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12386,7 +12311,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12398,7 +12323,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12406,7 +12331,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12502,7 +12427,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12545,7 +12470,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12872,7 +12797,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12888,7 +12813,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12904,7 +12829,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12920,7 +12845,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12936,7 +12861,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12951,9 +12876,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12961,7 +12884,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12972,7 +12895,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12981,7 +12904,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12993,7 +12916,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13001,7 +12924,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13097,7 +13020,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13140,7 +13063,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13467,7 +13390,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13483,7 +13406,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13499,7 +13422,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13515,7 +13438,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13531,7 +13454,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13546,9 +13469,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>147</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13556,7 +13477,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13567,7 +13488,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13576,7 +13497,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13588,7 +13509,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13596,7 +13517,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13692,7 +13613,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13735,7 +13656,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14062,7 +13983,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14078,7 +13999,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14094,7 +14015,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14110,7 +14031,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14126,7 +14047,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14141,9 +14062,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14151,7 +14070,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14162,7 +14081,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14171,7 +14090,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14183,7 +14102,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14191,7 +14110,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14287,7 +14206,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14330,7 +14249,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14657,7 +14576,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14673,7 +14592,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14689,7 +14608,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14705,7 +14624,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14721,7 +14640,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14736,9 +14655,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14746,7 +14663,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14757,7 +14674,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14766,7 +14683,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14778,7 +14695,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14786,7 +14703,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14882,7 +14799,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14925,7 +14842,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15252,7 +15169,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15268,7 +15185,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15284,7 +15201,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15300,7 +15217,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15316,7 +15233,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15331,9 +15248,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15341,7 +15256,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15352,7 +15267,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15361,7 +15276,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15373,7 +15288,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15381,7 +15296,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15477,7 +15392,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15520,7 +15435,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15847,7 +15762,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15863,7 +15778,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15879,7 +15794,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15895,7 +15810,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15911,7 +15826,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15926,9 +15841,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15936,7 +15849,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15947,7 +15860,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15956,7 +15869,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15968,7 +15881,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15976,7 +15889,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16072,7 +15985,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16115,7 +16028,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16498,7 +16411,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16514,7 +16427,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16530,7 +16443,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16546,7 +16459,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16562,7 +16475,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16577,9 +16490,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16587,7 +16498,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16598,7 +16509,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16607,7 +16518,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16619,7 +16530,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16627,7 +16538,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16723,7 +16634,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16766,7 +16677,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17093,7 +17004,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17109,7 +17020,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17125,7 +17036,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17141,7 +17052,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17157,7 +17068,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17172,9 +17083,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17182,7 +17091,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17193,7 +17102,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17202,7 +17111,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17214,7 +17123,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17222,7 +17131,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17318,7 +17227,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17361,7 +17270,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17688,7 +17597,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17704,7 +17613,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17720,7 +17629,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17736,7 +17645,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17752,7 +17661,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17767,9 +17676,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17777,7 +17684,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17788,7 +17695,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17797,7 +17704,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17809,7 +17716,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17817,7 +17724,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17913,7 +17820,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17956,7 +17863,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18283,7 +18190,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18299,7 +18206,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18315,7 +18222,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18331,7 +18238,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18347,7 +18254,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18362,9 +18269,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18372,7 +18277,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18383,7 +18288,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18392,7 +18297,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18404,7 +18309,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18412,7 +18317,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18508,7 +18413,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18551,7 +18456,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18878,7 +18783,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18894,7 +18799,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18910,7 +18815,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18926,7 +18831,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18942,7 +18847,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18957,9 +18862,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18967,7 +18870,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18978,7 +18881,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18987,7 +18890,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18999,7 +18902,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19007,7 +18910,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19103,7 +19006,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19146,7 +19049,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19473,7 +19376,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19489,7 +19392,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19505,7 +19408,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19521,7 +19424,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19537,7 +19440,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19552,9 +19455,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19562,7 +19463,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19573,7 +19474,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19582,7 +19483,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19594,7 +19495,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19602,7 +19503,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19698,7 +19599,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19741,7 +19642,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
